--- a/data/trans_dic/P57b3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,89</t>
+          <t>6,93; 12,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,75</t>
+          <t>6,61; 10,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,49</t>
+          <t>7,2; 10,8</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,1</t>
+          <t>6,39; 11,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,2</t>
+          <t>7,69; 12,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 10,77</t>
+          <t>7,37; 11,04</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,0; 77,66</t>
+          <t>11,22; 80,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,71; 19,9</t>
+          <t>11,7; 20,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 74,1</t>
+          <t>12,35; 73,81</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 14,95</t>
+          <t>10,89; 14,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 10,22</t>
+          <t>3,64; 10,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,85</t>
+          <t>7,14; 12,02</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,96</t>
+          <t>14,3; 21,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,43</t>
+          <t>12,71; 19,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,83; 19,14</t>
+          <t>13,86; 19,19</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 9,06</t>
+          <t>1,85; 8,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,37; 17,76</t>
+          <t>13,4; 17,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,68; 14,56</t>
+          <t>10,87; 14,87</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,1; 38,5</t>
+          <t>11,14; 36,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,89; 13,31</t>
+          <t>9,93; 13,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,59; 25,92</t>
+          <t>11,45; 27,84</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sentimiento de soledad al menos buena parte del tiempo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45677</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37609</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>83286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34939; 63043</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>29594; 48552</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>68478; 102733</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38521</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36999</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>75520</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28916; 51703</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29287; 46505</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>61441; 91972</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>294924</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26096</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>321021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>74985; 537484</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19527; 33947</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>103122; 616420</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>132017</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>73642</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>205659</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>112575; 153930</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>35627; 99318</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>143686; 241867</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>83519</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>139315</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>222834</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>67954; 102388</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>106733; 163230</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>182264; 252368</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9135</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>116917</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>126052</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4441; 21445</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>101701; 135957</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>108696; 148689</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>603793</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>430578</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1034371</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>375971; 1227278</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>354555; 474589</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>795352; 1934084</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>